--- a/biology/Microbiologie/Synhymenia/Synhymenia.xlsx
+++ b/biology/Microbiologie/Synhymenia/Synhymenia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Synhymeniidae
 Synhymenia, unique représentant de la famille des Synhymeniidae, est un genre de Ciliés de la classe des Nassophorea et de l’ordre des Nassulida.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de Synhymenia est dérivé du grec ancien συν / syn, « avec », et ὑμήν / ymín, « membrane, pellicule (qui enveloppe...) », en référence à la « frange hypostomiale » ou synhyménium, qui est observée sur la partie apicale de ce cilié[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de Synhymenia est dérivé du grec ancien συν / syn, « avec », et ὑμήν / ymín, « membrane, pellicule (qui enveloppe...) », en référence à la « frange hypostomiale » ou synhyménium, qui est observée sur la partie apicale de ce cilié.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Synhymeniidae ont une taille moyenne et une forme allongée. Ils nagent librement dans leur milieu de vie. Leur ciliation somatique est holotriche (c'est-à-dire uniforme). Ils ont un « synhyménium » ou frange hypostomiale qui s'étend dans une suture préorale gauche et présentent également une deuxième suture préorale à droite de la première, dans laquelle le synhyménium ne s'étend pas. Leur cytostome se situe dans 1/4 antérieur du corps. Leur macronoyau est ellipsoïde. La présence d'un micronoyau n'a pas été vérifiée. Par contre on y a observé la présence de vacuole contractile[1].
-Cette famille et son genre type nécessitent une redescription minutieuse[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Synhymeniidae ont une taille moyenne et une forme allongée. Ils nagent librement dans leur milieu de vie. Leur ciliation somatique est holotriche (c'est-à-dire uniforme). Ils ont un « synhyménium » ou frange hypostomiale qui s'étend dans une suture préorale gauche et présentent également une deuxième suture préorale à droite de la première, dans laquelle le synhyménium ne s'étend pas. Leur cytostome se situe dans 1/4 antérieur du corps. Leur macronoyau est ellipsoïde. La présence d'un micronoyau n'a pas été vérifiée. Par contre on y a observé la présence de vacuole contractile.
+Cette famille et son genre type nécessitent une redescription minutieuse.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Synhymenia a été observé dans des habitats d'eau douce[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Synhymenia a été observé dans des habitats d'eau douce.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (12 février 2024)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (12 février 2024) :
 Synhymenia acuta (Ozaki &amp; Yagiu, 1941) Jankowski, 1992
 Synhymenia agamalievi (Deroux, 1978) Jankowski, 1992
 Synhymenia alizadei (Aliev, 1990) Jankowski, 1992
